--- a/templates/example_input_template.xlsx
+++ b/templates/example_input_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AETART\Documents\flextool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aetart\Documents\flextool\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E88279C-75D5-424C-A8AE-6F7A96BC74EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C78522B-9177-4B51-AF09-9A9C927F8FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="1000" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="-57720" yWindow="0" windowWidth="29040" windowHeight="15720" tabRatio="1000" firstSheet="32" activeTab="19" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -2057,11 +2057,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -2072,7 +2071,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
@@ -2131,21 +2129,6 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2158,7 +2141,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -3330,9 +3313,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3370,7 +3353,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3476,7 +3459,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3618,7 +3601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3628,325 +3611,325 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F991596-B8AE-4F8F-B051-2E61303D5CC8}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="39" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="E4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="E5" s="5" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="E5" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="E6" s="5" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="E6" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>531</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="E11" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="29" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="32"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="C13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="29" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="29" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="29" t="s">
         <v>553</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="29" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="26"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="35" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="33" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="41" t="s">
         <v>402</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="41" t="s">
         <v>399</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4014,34 +3997,34 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="4" customWidth="1"/>
-    <col min="3" max="11" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="3" customWidth="1"/>
+    <col min="3" max="11" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4056,53 +4039,53 @@
   <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" customWidth="1"/>
-    <col min="13" max="13" width="29.28515625" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="14" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" style="14" customWidth="1"/>
-    <col min="24" max="26" width="10.85546875" style="14" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="14" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" customWidth="1"/>
-    <col min="30" max="30" width="8.140625" customWidth="1"/>
-    <col min="31" max="32" width="18.140625" customWidth="1"/>
-    <col min="33" max="33" width="16.85546875" customWidth="1"/>
-    <col min="34" max="35" width="29.140625" customWidth="1"/>
-    <col min="36" max="36" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" customWidth="1"/>
+    <col min="24" max="26" width="10.88671875" customWidth="1"/>
+    <col min="27" max="27" width="13.44140625" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" customWidth="1"/>
+    <col min="29" max="29" width="10.5546875" customWidth="1"/>
+    <col min="30" max="30" width="8.109375" customWidth="1"/>
+    <col min="31" max="32" width="18.109375" customWidth="1"/>
+    <col min="33" max="33" width="16.88671875" customWidth="1"/>
+    <col min="34" max="35" width="29.109375" customWidth="1"/>
+    <col min="36" max="36" width="14.6640625" customWidth="1"/>
     <col min="37" max="37" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1"/>
       <c r="C1" t="s">
         <v>167</v>
       </c>
@@ -4130,7 +4113,7 @@
       <c r="L1" t="s">
         <v>418</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>410</v>
       </c>
       <c r="N1" t="s">
@@ -4190,7 +4173,7 @@
       <c r="AF1" t="s">
         <v>405</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="4" t="s">
         <v>406</v>
       </c>
       <c r="AH1" t="s">
@@ -4203,135 +4186,133 @@
         <v>463</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AA2" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AE2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AG2" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AH2" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AI2" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AK2" s="8" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" t="s">
         <v>147</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14" t="s">
+      <c r="G3" t="s">
         <v>554</v>
       </c>
       <c r="H3" t="s">
@@ -4344,24 +4325,22 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" t="s">
         <v>147</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" t="s">
         <v>371</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
       <c r="H4" t="s">
         <v>136</v>
       </c>
@@ -4376,13 +4355,16 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
       <c r="H5" t="s">
         <v>136</v>
       </c>
@@ -4393,13 +4375,16 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
       <c r="H6" t="s">
         <v>136</v>
       </c>
@@ -4410,7 +4395,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>275</v>
       </c>
@@ -4420,6 +4405,9 @@
       <c r="C7" t="s">
         <v>147</v>
       </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
       <c r="F7" t="s">
         <v>147</v>
       </c>
@@ -4454,7 +4442,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>372</v>
       </c>
@@ -4464,6 +4452,9 @@
       <c r="C8" t="s">
         <v>147</v>
       </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
       <c r="F8" t="s">
         <v>147</v>
       </c>
@@ -4489,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>298</v>
       </c>
@@ -4505,10 +4496,10 @@
       <c r="T9">
         <v>800</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="Z9">
         <v>200</v>
       </c>
-      <c r="AB9" s="14">
+      <c r="AB9">
         <v>0.05</v>
       </c>
       <c r="AD9">
@@ -4539,29 +4530,29 @@
       <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1"/>
+      <c r="C1"/>
       <c r="D1" t="s">
         <v>64</v>
       </c>
@@ -4614,76 +4605,76 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D3">
@@ -4694,14 +4685,14 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D4">
@@ -4712,14 +4703,14 @@
         <v>-650</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>184</v>
       </c>
       <c r="D5">
@@ -4750,19 +4741,19 @@
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="15" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4772,23 +4763,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2"/>
+      <c r="B2" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -4798,8 +4789,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C4">
@@ -4809,8 +4800,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C5">
@@ -4819,10 +4810,10 @@
       <c r="D5">
         <v>-100</v>
       </c>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C6">
@@ -4832,8 +4823,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C7">
@@ -4843,8 +4834,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C8">
@@ -4854,8 +4845,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C9">
@@ -4865,8 +4856,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C10">
@@ -4876,8 +4867,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C11">
@@ -4887,8 +4878,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C12">
@@ -4898,8 +4889,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C13">
@@ -4909,8 +4900,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C14">
@@ -4920,8 +4911,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C15">
@@ -4931,8 +4922,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C16">
@@ -4942,8 +4933,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C17">
@@ -4953,8 +4944,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C18">
@@ -4964,8 +4955,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C19">
@@ -4975,8 +4966,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C20">
@@ -4986,8 +4977,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C21">
@@ -4997,8 +4988,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C22">
@@ -5008,8 +4999,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C23">
@@ -5019,8 +5010,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C24">
@@ -5030,8 +5021,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C25">
@@ -5041,8 +5032,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C26">
@@ -5052,8 +5043,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C27">
@@ -5084,15 +5075,15 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="B1"/>
@@ -5103,21 +5094,21 @@
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -5131,7 +5122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -5162,15 +5153,15 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="B1"/>
@@ -5179,56 +5170,56 @@
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D4">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>184</v>
       </c>
       <c r="D5">
@@ -5245,50 +5236,41 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EFF0A7-3963-4998-9482-2033971B0C97}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
-    <col min="3" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="3" customWidth="1"/>
+    <col min="3" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>148</v>
       </c>
     </row>
@@ -5305,43 +5287,43 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L1:L2"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
-    <col min="16" max="18" width="9.85546875" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" customWidth="1"/>
+    <col min="16" max="18" width="9.88671875" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" customWidth="1"/>
     <col min="20" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" customWidth="1"/>
+    <col min="22" max="22" width="9.88671875" customWidth="1"/>
+    <col min="23" max="23" width="10.5546875" customWidth="1"/>
     <col min="24" max="24" width="22" customWidth="1"/>
     <col min="25" max="25" width="10" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" customWidth="1"/>
-    <col min="27" max="27" width="14.140625" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" customWidth="1"/>
+    <col min="27" max="27" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1"/>
       <c r="E1" t="s">
         <v>274</v>
       </c>
@@ -5409,100 +5391,100 @@
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="Z2" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AA2" s="22" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>138</v>
       </c>
       <c r="E3" t="b">
@@ -5524,17 +5506,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>254</v>
       </c>
       <c r="E4" t="b">
@@ -5559,18 +5541,21 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>138</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>428</v>
@@ -5591,18 +5576,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>254</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>428</v>
@@ -5643,29 +5631,29 @@
       <selection pane="bottomRight" activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="14" max="14" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1"/>
+      <c r="C1"/>
       <c r="D1" t="s">
         <v>551</v>
       </c>
@@ -5706,92 +5694,92 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E4">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>184</v>
       </c>
       <c r="E5">
@@ -5817,232 +5805,232 @@
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="15" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2"/>
+      <c r="B2" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C4">
         <v>0.99</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C5">
         <v>0.99</v>
       </c>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C6">
         <v>0.99</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C7">
         <v>0.99</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C8">
         <v>0.99</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C9">
         <v>0.99</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C10">
         <v>0.99</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C11">
         <v>0.99</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C12">
         <v>0.99</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C13">
         <v>0.99</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C14">
         <v>0.99</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C15">
         <v>0.99</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C16">
         <v>0.99</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C17">
         <v>0.99</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C18">
         <v>0.99</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C19">
         <v>0.99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C20">
         <v>0.99</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C21">
         <v>0.99</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C22">
         <v>0.99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C23">
         <v>0.99</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C24">
         <v>0.99</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C25">
         <v>0.99</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C26">
         <v>0.99</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C27">
@@ -6067,19 +6055,19 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>170</v>
       </c>
@@ -6093,11 +6081,11 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="23">
         <v>44594</v>
       </c>
       <c r="C4" t="s">
@@ -6107,11 +6095,11 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="23">
         <v>44595</v>
       </c>
       <c r="C5" t="s">
@@ -6121,11 +6109,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="23">
         <v>44600</v>
       </c>
       <c r="C6" t="s">
@@ -6135,11 +6123,11 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="23">
         <v>44602</v>
       </c>
       <c r="C7" t="s">
@@ -6149,11 +6137,11 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="23">
         <v>44602</v>
       </c>
       <c r="C8" t="s">
@@ -6163,11 +6151,11 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="23">
         <v>44602</v>
       </c>
       <c r="C9" t="s">
@@ -6177,11 +6165,11 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="23">
         <v>44602</v>
       </c>
       <c r="C10" t="s">
@@ -6191,11 +6179,11 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="23">
         <v>44603</v>
       </c>
       <c r="C11" t="s">
@@ -6205,11 +6193,11 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="23">
         <v>44605</v>
       </c>
       <c r="C12" t="s">
@@ -6219,11 +6207,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="23">
         <v>44605</v>
       </c>
       <c r="C13" t="s">
@@ -6233,11 +6221,11 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="23">
         <v>44605</v>
       </c>
       <c r="C14" t="s">
@@ -6247,11 +6235,11 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="23">
         <v>44635</v>
       </c>
       <c r="C15" t="s">
@@ -6261,11 +6249,11 @@
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="23">
         <v>44643</v>
       </c>
       <c r="C16" t="s">
@@ -6275,11 +6263,11 @@
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="23">
         <v>44643</v>
       </c>
       <c r="C17" t="s">
@@ -6289,11 +6277,11 @@
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="23">
         <v>44643</v>
       </c>
       <c r="C18" t="s">
@@ -6303,11 +6291,11 @@
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="23">
         <v>44656</v>
       </c>
       <c r="C19" t="s">
@@ -6317,11 +6305,11 @@
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="23">
         <v>44657</v>
       </c>
       <c r="C20" t="s">
@@ -6331,11 +6319,11 @@
         <v>314</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="23">
         <v>44657</v>
       </c>
       <c r="C21" t="s">
@@ -6345,11 +6333,11 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="23">
         <v>44680</v>
       </c>
       <c r="C22" t="s">
@@ -6359,11 +6347,11 @@
         <v>331</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="23">
         <v>44680</v>
       </c>
       <c r="C23" t="s">
@@ -6373,11 +6361,11 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="23">
         <v>44690</v>
       </c>
       <c r="C24" t="s">
@@ -6387,11 +6375,11 @@
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="23">
         <v>44695</v>
       </c>
       <c r="C25" t="s">
@@ -6401,11 +6389,11 @@
         <v>357</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="23">
         <v>44701</v>
       </c>
       <c r="C26" t="s">
@@ -6415,11 +6403,11 @@
         <v>365</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="23">
         <v>44701</v>
       </c>
       <c r="C27" t="s">
@@ -6429,11 +6417,11 @@
         <v>367</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="23">
         <v>44712</v>
       </c>
       <c r="C28" t="s">
@@ -6443,11 +6431,11 @@
         <v>378</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="23">
         <v>44727</v>
       </c>
       <c r="C29" t="s">
@@ -6457,11 +6445,11 @@
         <v>386</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="23">
         <v>44734</v>
       </c>
       <c r="C30" t="s">
@@ -6471,11 +6459,11 @@
         <v>388</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="23">
         <v>44741</v>
       </c>
       <c r="C31" t="s">
@@ -6485,11 +6473,11 @@
         <v>420</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="23">
         <v>44840</v>
       </c>
       <c r="C32" t="s">
@@ -6499,11 +6487,11 @@
         <v>422</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="23">
         <v>44850</v>
       </c>
       <c r="C33" t="s">
@@ -6513,11 +6501,11 @@
         <v>424</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="23">
         <v>44875</v>
       </c>
       <c r="C34" t="s">
@@ -6527,11 +6515,11 @@
         <v>432</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="23">
         <v>44876</v>
       </c>
       <c r="C35" t="s">
@@ -6541,11 +6529,11 @@
         <v>434</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="23">
         <v>44889</v>
       </c>
       <c r="C36" t="s">
@@ -6555,11 +6543,11 @@
         <v>445</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="23">
         <v>44893</v>
       </c>
       <c r="C37" t="s">
@@ -6569,11 +6557,11 @@
         <v>451</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="23">
         <v>44903</v>
       </c>
       <c r="C38" t="s">
@@ -6583,11 +6571,11 @@
         <v>453</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="23">
         <v>45082</v>
       </c>
       <c r="C39" t="s">
@@ -6597,11 +6585,11 @@
         <v>493</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>22</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="23">
         <v>45156</v>
       </c>
       <c r="C40" t="s">
@@ -6611,11 +6599,11 @@
         <v>510</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>23</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="23">
         <v>45282</v>
       </c>
       <c r="C41" t="s">
@@ -6635,48 +6623,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6619729E-584E-41E3-B72E-7B2979330C88}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="15" width="9.85546875" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="15" width="9.88671875" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" customWidth="1"/>
     <col min="18" max="18" width="8" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" customWidth="1"/>
-    <col min="24" max="25" width="10.140625" customWidth="1"/>
+    <col min="19" max="19" width="8.5546875" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" customWidth="1"/>
+    <col min="22" max="22" width="9.88671875" customWidth="1"/>
+    <col min="23" max="23" width="12.109375" customWidth="1"/>
+    <col min="24" max="25" width="10.109375" customWidth="1"/>
     <col min="26" max="27" width="8" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" customWidth="1"/>
-    <col min="29" max="29" width="8.140625" customWidth="1"/>
+    <col min="28" max="28" width="9.109375" customWidth="1"/>
+    <col min="29" max="29" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1"/>
       <c r="C1" t="s">
         <v>274</v>
       </c>
@@ -6753,93 +6741,93 @@
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="1:28" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Y2" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="Z2" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AA2" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" s="24" t="s">
+      <c r="AB2" s="22" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -6849,17 +6837,17 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="47"/>
+      <c r="H3" s="40"/>
       <c r="I3">
         <v>100</v>
       </c>
@@ -6878,9 +6866,9 @@
       <c r="V3">
         <v>0.4</v>
       </c>
-      <c r="W3" s="5"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -6890,17 +6878,17 @@
       <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="47"/>
+      <c r="H4" s="40"/>
       <c r="I4">
         <v>100</v>
       </c>
@@ -6911,7 +6899,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -6921,17 +6909,17 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47" t="s">
+      <c r="F5" s="40"/>
+      <c r="G5" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="47"/>
+      <c r="H5" s="40"/>
       <c r="I5">
         <v>200</v>
       </c>
@@ -6942,19 +6930,22 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="40" t="s">
         <v>430</v>
       </c>
-      <c r="H6" s="47"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>372</v>
       </c>
@@ -6964,16 +6955,16 @@
       <c r="C7" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="H7" s="47"/>
+      <c r="H7" s="40"/>
       <c r="I7">
         <v>10</v>
       </c>
@@ -7000,31 +6991,31 @@
       <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1"/>
+      <c r="C1"/>
       <c r="D1" t="s">
         <v>551</v>
       </c>
@@ -7065,92 +7056,92 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E3">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E4">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>184</v>
       </c>
       <c r="E5">
@@ -7176,232 +7167,232 @@
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="15" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2"/>
+      <c r="B2" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C5">
         <v>0.5</v>
       </c>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C17">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C18">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C19">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C20">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C21">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C22">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C23">
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C24">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C27">
@@ -7420,7 +7411,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C13F0C3-2BD2-4859-9713-8823A445C2E8}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
@@ -7429,31 +7420,31 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
       <c r="E1" t="s">
         <v>467</v>
       </c>
@@ -7478,62 +7469,56 @@
       <c r="L1" t="s">
         <v>470</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>316</v>
       </c>
       <c r="E3">
@@ -7546,17 +7531,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>317</v>
       </c>
       <c r="E4">
@@ -7566,34 +7551,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>316</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>317</v>
       </c>
       <c r="E6">
@@ -7603,17 +7588,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>317</v>
       </c>
       <c r="E7">
@@ -7623,51 +7608,51 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>316</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>316</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>317</v>
       </c>
       <c r="E10">
@@ -7684,122 +7669,116 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DA37E5-5409-41C4-AED5-55D2EE2A3F2E}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="18" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
       <c r="F1" t="s">
         <v>552</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7823,250 +7802,250 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2"/>
+      <c r="B2" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3"/>
+      <c r="B3" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4"/>
+      <c r="B4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C28">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C29">
@@ -8094,17 +8073,17 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -8120,11 +8099,11 @@
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -8140,8 +8119,8 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
@@ -8157,8 +8136,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C4">
@@ -8174,8 +8153,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C5">
@@ -8191,8 +8170,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C6">
@@ -8208,8 +8187,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C7">
@@ -8225,8 +8204,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C8">
@@ -8242,8 +8221,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C9">
@@ -8259,8 +8238,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C10">
@@ -8276,8 +8255,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C11">
@@ -8293,8 +8272,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C12">
@@ -8310,8 +8289,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C13">
@@ -8327,8 +8306,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C14">
@@ -8344,8 +8323,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C15">
@@ -8361,8 +8340,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C16">
@@ -8378,8 +8357,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C17">
@@ -8395,8 +8374,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C18">
@@ -8412,8 +8391,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C19">
@@ -8429,8 +8408,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C20">
@@ -8446,8 +8425,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C21">
@@ -8463,8 +8442,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C22">
@@ -8480,8 +8459,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C23">
@@ -8497,8 +8476,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C24">
@@ -8514,8 +8493,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C25">
@@ -8531,8 +8510,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C26">
@@ -8556,7 +8535,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F666A2D2-C97B-40BC-8DAB-2941397753E9}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
@@ -8565,53 +8544,47 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="7" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="7" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1"/>
+      <c r="C1"/>
       <c r="D1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>255</v>
       </c>
       <c r="D3" t="s">
@@ -8628,7 +8601,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E6DA50-D119-4E64-AFE0-DB17C1EE7F55}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
@@ -8637,53 +8610,47 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="7" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="7" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1"/>
+      <c r="C1"/>
       <c r="D1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>249</v>
       </c>
       <c r="D3" t="s">
@@ -8700,7 +8667,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1EE4BC-08B3-4CC5-9A8F-D2957036E873}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
@@ -8709,78 +8676,72 @@
       <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
       <c r="E1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>380</v>
       </c>
       <c r="E4" t="s">
@@ -8806,112 +8767,111 @@
       <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="9" customWidth="1"/>
-    <col min="2" max="21" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" style="8" customWidth="1"/>
+    <col min="2" max="21" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="B1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2"/>
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" t="s">
         <v>297</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" t="s">
         <v>275</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" t="s">
         <v>299</v>
       </c>
       <c r="F4" t="s">
@@ -8939,11 +8899,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B5" s="14"/>
       <c r="G5" t="s">
         <v>298</v>
       </c>
@@ -8957,41 +8916,35 @@
         <v>369</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B11" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9012,39 +8965,39 @@
       <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
     <col min="13" max="13" width="22" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="24.109375" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="22" width="20.85546875" customWidth="1"/>
-    <col min="23" max="24" width="16.7109375" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" customWidth="1"/>
-    <col min="26" max="30" width="11.5703125" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="22" width="20.88671875" customWidth="1"/>
+    <col min="23" max="24" width="16.6640625" customWidth="1"/>
+    <col min="25" max="25" width="16.44140625" customWidth="1"/>
+    <col min="26" max="30" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1"/>
       <c r="C1" t="s">
         <v>327</v>
       </c>
@@ -9115,84 +9068,84 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="8" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -9205,9 +9158,9 @@
       <c r="G3">
         <v>10</v>
       </c>
-      <c r="R3" s="47"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R3" s="40"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -9227,7 +9180,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>297</v>
       </c>
@@ -9241,7 +9194,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>323</v>
       </c>
@@ -9255,7 +9208,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -9288,28 +9241,28 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="12" width="20.85546875" customWidth="1"/>
-    <col min="13" max="14" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="12" width="20.88671875" customWidth="1"/>
+    <col min="13" max="14" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1"/>
+      <c r="C1"/>
       <c r="D1" t="s">
         <v>35</v>
       </c>
@@ -9344,86 +9297,86 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>184</v>
       </c>
       <c r="G5">
@@ -9440,36 +9393,27 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B745B3BE-1539-44A7-9F68-00D8AEBADA46}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
-    <col min="3" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="3" customWidth="1"/>
+    <col min="3" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9478,40 +9422,31 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C65105-DA47-40FD-BED9-039766CD67C2}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="11" customWidth="1"/>
-    <col min="4" max="9" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="10" customWidth="1"/>
+    <col min="4" max="9" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9520,74 +9455,65 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF6F0B0-C8D9-4343-9EA4-859E87C9AF78}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
-    <col min="3" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="3" customWidth="1"/>
+    <col min="3" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>138</v>
       </c>
     </row>
@@ -9598,36 +9524,27 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5455887B-7914-47A3-A368-88187BB1082B}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
-    <col min="3" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="3" customWidth="1"/>
+    <col min="3" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9636,60 +9553,51 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8ED891B-8A85-405F-972C-9B1BFE92F9B9}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="11" customWidth="1"/>
-    <col min="4" max="9" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="10" customWidth="1"/>
+    <col min="4" max="9" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>138</v>
       </c>
     </row>
@@ -9703,7 +9611,7 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB87FF22-BB83-4D5E-B38D-455D581CF757}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
@@ -9712,26 +9620,26 @@
       <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="12" width="11.5703125" customWidth="1"/>
+    <col min="8" max="12" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
       <c r="F1" t="s">
         <v>473</v>
       </c>
@@ -9744,62 +9652,50 @@
       <c r="I1" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>360</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>137</v>
       </c>
       <c r="H3">
@@ -9819,7 +9715,7 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866244AD-1571-447F-BAEE-EFE2B5B3F812}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
@@ -9828,26 +9724,26 @@
       <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="12" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="12" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
       <c r="E1" t="s">
         <v>416</v>
       </c>
@@ -9860,56 +9756,44 @@
       <c r="H1" t="s">
         <v>337</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>266</v>
       </c>
       <c r="E3" t="s">
@@ -9944,168 +9828,166 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="15" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2"/>
+      <c r="B2" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3"/>
+      <c r="B3" s="10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4"/>
+      <c r="B4" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="17"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -10130,25 +10012,25 @@
       <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="14" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="14" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1"/>
+      <c r="C1"/>
       <c r="D1" t="s">
         <v>152</v>
       </c>
@@ -10162,49 +10044,49 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>5</v>
       </c>
       <c r="F3" t="s">
@@ -10214,14 +10096,14 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D4" t="s">
@@ -10234,14 +10116,14 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D5" t="s">
@@ -10254,14 +10136,14 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D6" t="s">
@@ -10274,14 +10156,14 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D7" t="s">
@@ -10294,14 +10176,14 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D8" t="s">
@@ -10314,14 +10196,14 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>184</v>
       </c>
       <c r="D9" t="s">
@@ -10334,14 +10216,14 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D10" t="s">
@@ -10354,9 +10236,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10370,7 +10252,7 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8C0D5E-7DB2-4BCF-8A8C-24C978AAECC4}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
@@ -10379,27 +10261,27 @@
       <selection pane="bottomRight" activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="12" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="12" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
       <c r="F1" t="s">
         <v>474</v>
       </c>
@@ -10412,62 +10294,50 @@
       <c r="I1" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>137</v>
       </c>
       <c r="H3">
@@ -10477,20 +10347,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>137</v>
       </c>
       <c r="H4">
@@ -10500,20 +10370,20 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>137</v>
       </c>
       <c r="H5">
@@ -10523,20 +10393,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>360</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>138</v>
       </c>
       <c r="H6">
@@ -10546,20 +10416,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>360</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>137</v>
       </c>
       <c r="H7">
@@ -10579,7 +10449,7 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C017E3-B844-46CF-8B82-D76F5D9D7ACD}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -10588,53 +10458,41 @@
       <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="9" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="9" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1"/>
       <c r="C1" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -10644,14 +10502,14 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>164</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>372</v>
       </c>
@@ -10661,14 +10519,14 @@
       <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>375</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>298</v>
       </c>
@@ -10678,7 +10536,7 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>375</v>
       </c>
       <c r="E5">
@@ -10705,123 +10563,123 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
-    <col min="7" max="10" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
+    <col min="7" max="10" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
-      <c r="D1" s="3"/>
+      <c r="D1"/>
       <c r="E1"/>
       <c r="F1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>163</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>163</v>
       </c>
       <c r="F4">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>374</v>
       </c>
       <c r="F5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>374</v>
       </c>
       <c r="F6">
@@ -10847,18 +10705,18 @@
       <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="9" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="9" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="B1"/>
@@ -10868,20 +10726,20 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>389</v>
       </c>
     </row>
@@ -10904,18 +10762,18 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="B1"/>
@@ -10927,31 +10785,31 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>426</v>
       </c>
       <c r="E3">
@@ -10977,17 +10835,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="B1"/>
@@ -10996,17 +10854,17 @@
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>395</v>
       </c>
     </row>
@@ -11029,17 +10887,17 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="B1"/>
@@ -11048,28 +10906,28 @@
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>426</v>
       </c>
       <c r="D3">
@@ -11092,36 +10950,36 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14" style="52" customWidth="1"/>
-    <col min="4" max="4" width="117.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14" style="45" customWidth="1"/>
+    <col min="4" max="4" width="117.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="50"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B1"/>
+      <c r="C1" s="43"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="44" t="s">
         <v>517</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -11132,7 +10990,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -11143,7 +11001,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -11154,7 +11012,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -11165,7 +11023,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -11176,14 +11034,14 @@
         <v>529</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="45" t="s">
         <v>147</v>
       </c>
       <c r="D8" t="s">
@@ -11210,24 +11068,24 @@
       <selection pane="bottomRight" activeCell="D25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
-    <col min="10" max="18" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="18" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1"/>
       <c r="C1" t="s">
         <v>477</v>
       </c>
@@ -11253,63 +11111,63 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -11325,14 +11183,14 @@
       <c r="F3" t="s">
         <v>439</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>440</v>
       </c>
       <c r="H3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>299</v>
       </c>
@@ -11348,14 +11206,14 @@
       <c r="F4" t="s">
         <v>439</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>440</v>
       </c>
       <c r="H4" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>299</v>
       </c>
@@ -11371,14 +11229,14 @@
       <c r="F5" t="s">
         <v>439</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>440</v>
       </c>
       <c r="H5" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>299</v>
       </c>
@@ -11394,14 +11252,14 @@
       <c r="F6" t="s">
         <v>439</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>440</v>
       </c>
       <c r="H6" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>299</v>
       </c>
@@ -11417,14 +11275,14 @@
       <c r="F7" t="s">
         <v>439</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>440</v>
       </c>
       <c r="H7" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>369</v>
       </c>
@@ -11434,9 +11292,9 @@
       <c r="E8" t="s">
         <v>370</v>
       </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>369</v>
       </c>
@@ -11446,9 +11304,9 @@
       <c r="E9" t="s">
         <v>370</v>
       </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>369</v>
       </c>
@@ -11458,9 +11316,9 @@
       <c r="E10" t="s">
         <v>370</v>
       </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>369</v>
       </c>
@@ -11470,7 +11328,7 @@
       <c r="E11" t="s">
         <v>370</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11489,24 +11347,24 @@
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="17" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="17" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1"/>
       <c r="C1" t="s">
         <v>504</v>
       </c>
@@ -11517,36 +11375,36 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -11562,104 +11420,104 @@
       <c r="E3">
         <v>15000</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11681,65 +11539,65 @@
       <selection pane="bottomRight" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="13" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="13" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1"/>
+      <c r="C1"/>
       <c r="D1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D4">
@@ -11766,40 +11624,40 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="13" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="13" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1"/>
+      <c r="C1"/>
       <c r="D1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -11813,7 +11671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -11827,7 +11685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -11841,7 +11699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -11855,7 +11713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -11869,7 +11727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -11883,7 +11741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -11897,7 +11755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -11911,7 +11769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -11925,7 +11783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -11939,7 +11797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -11953,7 +11811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -11967,7 +11825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -11981,7 +11839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -11995,7 +11853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -12009,7 +11867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -12023,7 +11881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -12037,7 +11895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -12051,7 +11909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -12065,7 +11923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -12079,7 +11937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -12093,7 +11951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -12107,7 +11965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -12121,7 +11979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -12135,8 +11993,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="26"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12158,35 +12016,35 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="12" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="12" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1"/>
       <c r="C1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
